--- a/data_analysis/data_analysis_hello_world/dataframe/file_for_read/2020_sales_data.xlsx
+++ b/data_analysis/data_analysis_hello_world/dataframe/file_for_read/2020_sales_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoujianyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoujianyu/local_project/python/self-learn-python-project/data_analysis/data_analysis_hello_world/dataframe/file_for_read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723958EF-3182-B546-99A9-9EBFD4D7A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94555C8-6542-D14B-BD35-363242D24941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="960" windowWidth="24540" windowHeight="13900" xr2:uid="{59919C32-2374-974D-9AA6-7B7B9D2677AF}"/>
   </bookViews>
@@ -470,13 +470,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -484,14 +484,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,7 +562,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,7 +574,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,7 +585,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{CC959244-FC6C-0346-8E07-9CD4B7E13021}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6785CD4A-A599-1D4F-8D36-4A6FBFA563E0}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -914,7 +914,7 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -937,7 +937,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="4">
         <v>43831</v>
       </c>
@@ -960,7 +960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="4">
         <v>43831</v>
       </c>
@@ -983,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="4">
         <v>43831</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="4">
         <v>43831</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="4">
         <v>43831</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="4">
         <v>43832</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="4">
         <v>43832</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="4">
         <v>43833</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="4">
         <v>43833</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="4">
         <v>43833</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="4">
         <v>43833</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="4">
         <v>43833</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="4">
         <v>43833</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="4">
         <v>43833</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="4">
         <v>43834</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="4">
         <v>43834</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="4">
         <v>43834</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="4">
         <v>43834</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="4">
         <v>43834</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="4">
         <v>43834</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="4">
         <v>43835</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="4">
         <v>43835</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="4">
         <v>43835</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="4">
         <v>43835</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="4">
         <v>43835</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="4">
         <v>43835</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="4">
         <v>43835</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="4">
         <v>43836</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="4">
         <v>43836</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18">
+    <row r="31" spans="1:7" ht="17">
       <c r="A31" s="4">
         <v>43836</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="4">
         <v>43836</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="4">
         <v>43836</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="4">
         <v>43836</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="4">
         <v>43836</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="4">
         <v>43837</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18">
+    <row r="37" spans="1:7" ht="17">
       <c r="A37" s="4">
         <v>43837</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18">
+    <row r="38" spans="1:7" ht="17">
       <c r="A38" s="4">
         <v>43837</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="4">
         <v>43837</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="4">
         <v>43837</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18">
+    <row r="41" spans="1:7" ht="17">
       <c r="A41" s="4">
         <v>43837</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="4">
         <v>43838</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18">
+    <row r="43" spans="1:7" ht="17">
       <c r="A43" s="4">
         <v>43838</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18">
+    <row r="44" spans="1:7" ht="17">
       <c r="A44" s="4">
         <v>43838</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="4">
         <v>43838</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="4">
         <v>43838</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="4">
         <v>43838</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18">
+    <row r="48" spans="1:7" ht="17">
       <c r="A48" s="4">
         <v>43838</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18">
+    <row r="49" spans="1:7" ht="17">
       <c r="A49" s="4">
         <v>43838</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18">
+    <row r="50" spans="1:7" ht="17">
       <c r="A50" s="4">
         <v>43838</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18">
+    <row r="51" spans="1:7" ht="17">
       <c r="A51" s="4">
         <v>43839</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18">
+    <row r="52" spans="1:7" ht="17">
       <c r="A52" s="4">
         <v>43839</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18">
+    <row r="53" spans="1:7" ht="17">
       <c r="A53" s="4">
         <v>43839</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18">
+    <row r="54" spans="1:7" ht="17">
       <c r="A54" s="4">
         <v>43839</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18">
+    <row r="55" spans="1:7" ht="17">
       <c r="A55" s="4">
         <v>43839</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18">
+    <row r="56" spans="1:7" ht="17">
       <c r="A56" s="4">
         <v>43839</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18">
+    <row r="57" spans="1:7" ht="17">
       <c r="A57" s="4">
         <v>43839</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18">
+    <row r="58" spans="1:7" ht="17">
       <c r="A58" s="4">
         <v>43840</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18">
+    <row r="59" spans="1:7" ht="17">
       <c r="A59" s="4">
         <v>43840</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18">
+    <row r="60" spans="1:7" ht="17">
       <c r="A60" s="4">
         <v>43840</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18">
+    <row r="61" spans="1:7" ht="17">
       <c r="A61" s="4">
         <v>43840</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18">
+    <row r="62" spans="1:7" ht="17">
       <c r="A62" s="4">
         <v>43840</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18">
+    <row r="63" spans="1:7" ht="17">
       <c r="A63" s="4">
         <v>43840</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18">
+    <row r="64" spans="1:7" ht="17">
       <c r="A64" s="4">
         <v>43840</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18">
+    <row r="65" spans="1:7" ht="17">
       <c r="A65" s="4">
         <v>43840</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18">
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="4">
         <v>43840</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18">
+    <row r="67" spans="1:7" ht="17">
       <c r="A67" s="4">
         <v>43840</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18">
+    <row r="68" spans="1:7" ht="17">
       <c r="A68" s="4">
         <v>43840</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18">
+    <row r="69" spans="1:7" ht="17">
       <c r="A69" s="4">
         <v>43840</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18">
+    <row r="70" spans="1:7" ht="17">
       <c r="A70" s="4">
         <v>43841</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18">
+    <row r="71" spans="1:7" ht="17">
       <c r="A71" s="4">
         <v>43841</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18">
+    <row r="72" spans="1:7" ht="17">
       <c r="A72" s="4">
         <v>43841</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18">
+    <row r="73" spans="1:7" ht="17">
       <c r="A73" s="4">
         <v>43841</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18">
+    <row r="74" spans="1:7" ht="17">
       <c r="A74" s="4">
         <v>43841</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18">
+    <row r="75" spans="1:7" ht="17">
       <c r="A75" s="4">
         <v>43842</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18">
+    <row r="76" spans="1:7" ht="17">
       <c r="A76" s="4">
         <v>43842</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18">
+    <row r="77" spans="1:7" ht="17">
       <c r="A77" s="4">
         <v>43842</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18">
+    <row r="78" spans="1:7" ht="17">
       <c r="A78" s="4">
         <v>43842</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18">
+    <row r="79" spans="1:7" ht="17">
       <c r="A79" s="4">
         <v>43842</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18">
+    <row r="80" spans="1:7" ht="17">
       <c r="A80" s="4">
         <v>43842</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18">
+    <row r="81" spans="1:7" ht="17">
       <c r="A81" s="4">
         <v>43842</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18">
+    <row r="82" spans="1:7" ht="17">
       <c r="A82" s="4">
         <v>43842</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18">
+    <row r="83" spans="1:7" ht="17">
       <c r="A83" s="4">
         <v>43842</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18">
+    <row r="84" spans="1:7" ht="17">
       <c r="A84" s="4">
         <v>43842</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18">
+    <row r="85" spans="1:7" ht="17">
       <c r="A85" s="4">
         <v>43843</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18">
+    <row r="86" spans="1:7" ht="17">
       <c r="A86" s="4">
         <v>43843</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18">
+    <row r="87" spans="1:7" ht="17">
       <c r="A87" s="4">
         <v>43843</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18">
+    <row r="88" spans="1:7" ht="17">
       <c r="A88" s="4">
         <v>43843</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18">
+    <row r="89" spans="1:7" ht="17">
       <c r="A89" s="4">
         <v>43844</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18">
+    <row r="90" spans="1:7" ht="17">
       <c r="A90" s="4">
         <v>43844</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18">
+    <row r="91" spans="1:7" ht="17">
       <c r="A91" s="4">
         <v>43844</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18">
+    <row r="92" spans="1:7" ht="17">
       <c r="A92" s="4">
         <v>43844</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18">
+    <row r="93" spans="1:7" ht="17">
       <c r="A93" s="4">
         <v>43844</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18">
+    <row r="94" spans="1:7" ht="17">
       <c r="A94" s="4">
         <v>43844</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18">
+    <row r="95" spans="1:7" ht="17">
       <c r="A95" s="4">
         <v>43844</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18">
+    <row r="96" spans="1:7" ht="17">
       <c r="A96" s="4">
         <v>43844</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18">
+    <row r="97" spans="1:7" ht="17">
       <c r="A97" s="4">
         <v>43844</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18">
+    <row r="98" spans="1:7" ht="17">
       <c r="A98" s="4">
         <v>43844</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18">
+    <row r="99" spans="1:7" ht="17">
       <c r="A99" s="4">
         <v>43844</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18">
+    <row r="100" spans="1:7" ht="17">
       <c r="A100" s="4">
         <v>43844</v>
       </c>
@@ -3214,9 +3214,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18">
+    <row r="101" spans="1:7" ht="17">
       <c r="A101" s="4">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>141</v>
@@ -3237,7 +3237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18">
+    <row r="102" spans="1:7" ht="17">
       <c r="A102" s="4">
         <v>43845</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18">
+    <row r="103" spans="1:7" ht="17">
       <c r="A103" s="4">
         <v>43845</v>
       </c>
@@ -3283,9 +3283,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18">
+    <row r="104" spans="1:7" ht="17">
       <c r="A104" s="4">
-        <v>43845</v>
+        <v>43905</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>141</v>
@@ -3306,7 +3306,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18">
+    <row r="105" spans="1:7" ht="17">
       <c r="A105" s="4">
         <v>43845</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18">
+    <row r="106" spans="1:7" ht="17">
       <c r="A106" s="4">
         <v>43845</v>
       </c>
@@ -3352,9 +3352,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18">
+    <row r="107" spans="1:7" ht="17">
       <c r="A107" s="4">
-        <v>43845</v>
+        <v>43966</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>141</v>
@@ -3375,9 +3375,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18">
+    <row r="108" spans="1:7" ht="17">
       <c r="A108" s="4">
-        <v>43845</v>
+        <v>43936</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>141</v>
@@ -3398,7 +3398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18">
+    <row r="109" spans="1:7" ht="17">
       <c r="A109" s="4">
         <v>43845</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18">
+    <row r="110" spans="1:7" ht="17">
       <c r="A110" s="4">
         <v>43845</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18">
+    <row r="111" spans="1:7" ht="17">
       <c r="A111" s="4">
         <v>43846</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18">
+    <row r="112" spans="1:7" ht="17">
       <c r="A112" s="4">
         <v>43846</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18">
+    <row r="113" spans="1:7" ht="17">
       <c r="A113" s="4">
         <v>43846</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18">
+    <row r="114" spans="1:7" ht="17">
       <c r="A114" s="4">
         <v>43846</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18">
+    <row r="115" spans="1:7" ht="17">
       <c r="A115" s="4">
         <v>43846</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18">
+    <row r="116" spans="1:7" ht="17">
       <c r="A116" s="4">
         <v>43846</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18">
+    <row r="117" spans="1:7" ht="17">
       <c r="A117" s="4">
         <v>43846</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18">
+    <row r="118" spans="1:7" ht="17">
       <c r="A118" s="4">
         <v>43847</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18">
+    <row r="119" spans="1:7" ht="17">
       <c r="A119" s="4">
         <v>43847</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18">
+    <row r="120" spans="1:7" ht="17">
       <c r="A120" s="4">
         <v>43847</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18">
+    <row r="121" spans="1:7" ht="17">
       <c r="A121" s="4">
         <v>43847</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="18">
+    <row r="122" spans="1:7" ht="17">
       <c r="A122" s="4">
         <v>43847</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="18">
+    <row r="123" spans="1:7" ht="17">
       <c r="A123" s="4">
         <v>43847</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="18">
+    <row r="124" spans="1:7" ht="17">
       <c r="A124" s="4">
         <v>43847</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="18">
+    <row r="125" spans="1:7" ht="17">
       <c r="A125" s="4">
         <v>43847</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="18">
+    <row r="126" spans="1:7" ht="17">
       <c r="A126" s="4">
         <v>43847</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="18">
+    <row r="127" spans="1:7" ht="17">
       <c r="A127" s="4">
         <v>43848</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="18">
+    <row r="128" spans="1:7" ht="17">
       <c r="A128" s="4">
         <v>43848</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="18">
+    <row r="129" spans="1:7" ht="17">
       <c r="A129" s="4">
         <v>43848</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="18">
+    <row r="130" spans="1:7" ht="17">
       <c r="A130" s="4">
         <v>43848</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="18">
+    <row r="131" spans="1:7" ht="17">
       <c r="A131" s="4">
         <v>43848</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="18">
+    <row r="132" spans="1:7" ht="17">
       <c r="A132" s="4">
         <v>43848</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="18">
+    <row r="133" spans="1:7" ht="17">
       <c r="A133" s="4">
         <v>43848</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="18">
+    <row r="134" spans="1:7" ht="17">
       <c r="A134" s="4">
         <v>43849</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="18">
+    <row r="135" spans="1:7" ht="17">
       <c r="A135" s="4">
         <v>43849</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="18">
+    <row r="136" spans="1:7" ht="17">
       <c r="A136" s="4">
         <v>43849</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="18">
+    <row r="137" spans="1:7" ht="17">
       <c r="A137" s="4">
         <v>43849</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="18">
+    <row r="138" spans="1:7" ht="17">
       <c r="A138" s="4">
         <v>43849</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="18">
+    <row r="139" spans="1:7" ht="17">
       <c r="A139" s="4">
         <v>43849</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="18">
+    <row r="140" spans="1:7" ht="17">
       <c r="A140" s="4">
         <v>43849</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="18">
+    <row r="141" spans="1:7" ht="17">
       <c r="A141" s="4">
         <v>43849</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="18">
+    <row r="142" spans="1:7" ht="17">
       <c r="A142" s="4">
         <v>43849</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="18">
+    <row r="143" spans="1:7" ht="17">
       <c r="A143" s="4">
         <v>43849</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="18">
+    <row r="144" spans="1:7" ht="17">
       <c r="A144" s="4">
         <v>43849</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="18">
+    <row r="145" spans="1:7" ht="17">
       <c r="A145" s="4">
         <v>43849</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="18">
+    <row r="146" spans="1:7" ht="17">
       <c r="A146" s="4">
         <v>43849</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="18">
+    <row r="147" spans="1:7" ht="17">
       <c r="A147" s="4">
         <v>43850</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="18">
+    <row r="148" spans="1:7" ht="17">
       <c r="A148" s="4">
         <v>43850</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="18">
+    <row r="149" spans="1:7" ht="17">
       <c r="A149" s="4">
         <v>43850</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="18">
+    <row r="150" spans="1:7" ht="17">
       <c r="A150" s="4">
         <v>43850</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="18">
+    <row r="151" spans="1:7" ht="17">
       <c r="A151" s="4">
         <v>43851</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="18">
+    <row r="152" spans="1:7" ht="17">
       <c r="A152" s="4">
         <v>43851</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="18">
+    <row r="153" spans="1:7" ht="17">
       <c r="A153" s="4">
         <v>43851</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="18">
+    <row r="154" spans="1:7" ht="17">
       <c r="A154" s="4">
         <v>43851</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="18">
+    <row r="155" spans="1:7" ht="17">
       <c r="A155" s="4">
         <v>43851</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="18">
+    <row r="156" spans="1:7" ht="17">
       <c r="A156" s="4">
         <v>43851</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="18">
+    <row r="157" spans="1:7" ht="17">
       <c r="A157" s="4">
         <v>43851</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="18">
+    <row r="158" spans="1:7" ht="17">
       <c r="A158" s="4">
         <v>43851</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="18">
+    <row r="159" spans="1:7" ht="17">
       <c r="A159" s="4">
         <v>43851</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="18">
+    <row r="160" spans="1:7" ht="17">
       <c r="A160" s="4">
         <v>43852</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="18">
+    <row r="161" spans="1:7" ht="17">
       <c r="A161" s="4">
         <v>43852</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18">
+    <row r="162" spans="1:7" ht="17">
       <c r="A162" s="4">
         <v>43852</v>
       </c>
